--- a/similarities/split_global/harmonic_similarity_timestamps_405.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_405.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:45.460000', '0:00:58.080000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=45.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:13.880000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+          <t>('0:00:23.040000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.04']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['E/5', 'B', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.900000', '0:00:11.630000')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:46.590000', '0:00:53.060000')]</t>
+          <t>('0:00:30.035034', '0:00:41.761111')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=46.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=30.035034</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Eb:7', 'Ab:maj', 'Eb/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000'), ('0:00:44', '0:01:01.060000'), ('0:00:09.780000', '0:00:14.360000')]</t>
+          <t>('0:00:07.840000', '0:00:09.480000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:04:43.300000', '0:04:50.060000'), ('0:00:26.960000', '0:00:33.500000')]</t>
+          <t>('0:00:26.006000', '0:00:29.321000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=7.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=26.006</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:14.500000', '0:01:20.420000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:07.700000'), ('0:00:00.660000', '0:00:06.020000')]</t>
+          <t>('0:00:10.240000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:19.540000'), ('0:00:07.220000', '0:00:16.840000')]</t>
+          <t>('0:00:23.040000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=7.22']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=23.04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_51</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'A:min7', 'D:7', 'G:maj7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'D:min7', 'G:7', 'C:maj7']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:50.680000', '0:00:59.090000')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:24.910000', '0:00:31.040000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=50.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=24.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.703786')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['C:min', 'Db', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000'), ('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:02:49.840000', '0:02:52.420000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:42.080000', '0:00:57.880000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:01:03.359000', '0:01:09.226000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=169.84</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=63.359</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A#:7', 'D#:min/A#', 'D#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:00:25.940000', '0:00:45.200000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:18.300000')]</t>
+          <t>('0:00:36.180000', '0:00:37.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=25.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=36.18</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:min', 'A', 'D']]</t>
+          <t>['C:7', 'F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:20.956000', '0:01:25.176000')]</t>
+          <t>('0:00:53.530000', '0:01:05.420000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:47.993000', '0:00:52.587959')]</t>
+          <t>('0:00:39.910000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=53.53</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-170#t=47.993']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=39.91</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:01:03.100000', '0:01:06.700000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
+          <t>('0:00:22.820000', '0:00:26.720000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.82</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
